--- a/biology/Zoologie/Dendrocygne_à_ventre_noir/Dendrocygne_à_ventre_noir.xlsx
+++ b/biology/Zoologie/Dendrocygne_à_ventre_noir/Dendrocygne_à_ventre_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocygna autumnalis
 Le Dendrocygne à ventre noir (Dendrocygna autumnalis), connu également sous le nom de Dendrocygne à bec rouge, est une espèce d'oiseaux appartenant à la famille des anatidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesurant entre 48 et 53 cm, cet oiseau se caractérise par son bec rouge et ses pattes roses, sa tête grise, son cou et son dos roussâtres, son ventre noir ainsi qu'une grande barre blanche sur l'aile. Le juvénile est plus terne et plus brun dessous. Le bec et les pattes sont gris bleu.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente une grande variété de milieux humides ; il évite cependant les lacs trop profonds et les régions trop boisées.
 C'est une espèce répandue du sud du Texas jusqu'au nord de l'Argentine.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 12.1, 2022) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes (ordre phylogénique) :
 Dendrocygna autumnalis fulgens  Friedmann, 1947 ;
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce nocturne moins aquatique que les autres dendrocygnes. Il se nourrit principalement de graines dans les cultures, très souvent en groupes importants.
 La reproduction débute généralement vers le mois de juillet; le nid est situé dans un arbre creux près de l'eau.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dendrocygne_%C3%A0_ventre_noir</t>
+          <t>Dendrocygne_à_ventre_noir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce abondante puisque la population globale est estimée entre 1 100 000 et 2 000 000 d'individus.
 </t>
